--- a/Inserción/Graficas.xlsx
+++ b/Inserción/Graficas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Andrés\Universidad\QUINTO SEMESTRE\Ciencias de la computación\Analisis-de-tiempo\Inserción\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,8 +17,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$B$37:$B$66</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$C$37:$C$66</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$B$37:$B$66</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$C$37:$C$66</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,9 +36,6 @@
     <t>t(N)</t>
   </si>
   <si>
-    <t>Tiempo en Dev</t>
-  </si>
-  <si>
     <t>0.00114036</t>
   </si>
   <si>
@@ -120,6 +115,9 @@
   </si>
   <si>
     <t>0.0610095</t>
+  </si>
+  <si>
+    <t>Tiempo de máquina</t>
   </si>
 </sst>
 </file>
@@ -674,7 +672,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>N vs Tiempo en Dev</cx:v>
+          <cx:v>N vs Tiempo de Máquina</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -694,7 +692,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>N vs Tiempo en Dev</a:t>
+            <a:t>N vs Tiempo de Máquina</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -1930,7 +1928,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4211287" y="7371732"/>
+              <a:off x="4214751" y="7371732"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2264,12 +2262,12 @@
   <dimension ref="B3:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2319,7 +2317,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <f t="shared" ref="B8:B53" si="1">B7+5</f>
+        <f t="shared" ref="B8:B33" si="1">B7+5</f>
         <v>25</v>
       </c>
       <c r="C8" s="1">
@@ -2582,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -2606,7 +2604,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -2615,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -2624,7 +2622,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -2642,75 +2640,76 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
         <v>1.0535299999999999E-2</v>
@@ -2719,136 +2718,136 @@
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f t="shared" si="2"/>
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f t="shared" si="2"/>
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
